--- a/digitizedData/data33kVsubStation-August-2-2023.xlsx
+++ b/digitizedData/data33kVsubStation-August-2-2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susan/Documents/POWER GRID/HW2/digitizedData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAB4FD5-010E-884F-AD66-A75BD7D1E895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35875233-B1F9-3C47-9B14-45A235E39DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="880" windowWidth="29400" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -465,7 +465,7 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>44755</v>
+        <v>45140</v>
       </c>
       <c r="I5" s="1">
         <v>5.99</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>44755.041666666701</v>
+        <v>45140.041666666664</v>
       </c>
       <c r="I6" s="1">
         <v>5.66</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>44755.083333333299</v>
+        <v>45140.083333333336</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>44755.125</v>
+        <v>45140.125</v>
       </c>
       <c r="I8" s="1">
         <v>5.33</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>44755.166666666701</v>
+        <v>45140.166666666664</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>44755.208333333299</v>
+        <v>45140.208333333336</v>
       </c>
       <c r="I10" s="1">
         <v>5.38</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>44755.25</v>
+        <v>45140.25</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -552,7 +552,7 @@
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>44755.291666666701</v>
+        <v>45140.291666666664</v>
       </c>
       <c r="I12" s="1">
         <v>5.14</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>44755.333333333401</v>
+        <v>45140.333333333336</v>
       </c>
       <c r="I13" s="1">
         <v>5.25</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>44755.375</v>
+        <v>45140.375</v>
       </c>
       <c r="I14" s="1">
         <v>6.11</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>44755.416666666701</v>
+        <v>45140.416666666664</v>
       </c>
       <c r="I15" s="1">
         <v>6.11</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>44755.458333333401</v>
+        <v>45140.458333333336</v>
       </c>
       <c r="I16" s="1">
         <v>6.11</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>44755.5</v>
+        <v>45140.5</v>
       </c>
       <c r="I17" s="1">
         <v>6.25</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>44755.541666666701</v>
+        <v>45140.541666666664</v>
       </c>
       <c r="I18" s="1">
         <v>6.25</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
-        <v>44755.583333333401</v>
+        <v>45140.583333333336</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -650,7 +650,7 @@
     </row>
     <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
-        <v>44755.625</v>
+        <v>45140.625</v>
       </c>
       <c r="I20" s="1">
         <v>6.4</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
-        <v>44755.666666666701</v>
+        <v>45140.666666666664</v>
       </c>
       <c r="I21" s="1">
         <v>7.4</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
-        <v>44755.708333333401</v>
+        <v>45140.708333333336</v>
       </c>
       <c r="I22" s="1">
         <v>7.4</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
-        <v>44755.750000000102</v>
+        <v>45140.75</v>
       </c>
       <c r="I23" s="1">
         <v>6.5</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
-        <v>44755.791666666701</v>
+        <v>45140.791666666664</v>
       </c>
       <c r="I24" s="1">
         <v>6.9</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
-        <v>44755.833333333401</v>
+        <v>45140.833333333336</v>
       </c>
       <c r="I25" s="1">
         <v>7.1</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
-        <v>44755.875000000102</v>
+        <v>45140.875</v>
       </c>
       <c r="I26" s="1">
         <v>7.1</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>44755.916666666701</v>
+        <v>45140.916666666664</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -748,7 +748,7 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>44755.958333333401</v>
+        <v>45140.958333333336</v>
       </c>
       <c r="I28" s="1">
         <v>6.28</v>
